--- a/AAA - Revision Asignacion de Salida (v2022_11).xlsx
+++ b/AAA - Revision Asignacion de Salida (v2022_11).xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O17"/>
+  <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,70 +445,90 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Fecha Ingreso a SUCA</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Antiguedad</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Categoria</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Dias de vacaciones</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Carga Teorica</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Carga Asignada</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Mañanas</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Tardes</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Viernes Tarde</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Noches</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Fines de Semana</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Sábados</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Domingos</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Mañanas/mes</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Tardes/mes</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>ViernesTarde/mes</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Noches/mes</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>FindeSemana/mes</t>
         </is>
@@ -516,46 +540,60 @@
           <t>Fernandez</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>3.793725477029483</v>
+      <c r="B2" s="2" t="n">
+        <v>40940</v>
       </c>
       <c r="C2" t="n">
-        <v>3.068340306834029</v>
-      </c>
-      <c r="D2" t="n">
-        <v>9</v>
+        <v>11.04383561643836</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Yoda-Sin Noches</t>
+        </is>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.039726495529154</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1.891427167772042</v>
       </c>
       <c r="H2" t="n">
+        <v>10</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>0.6666666666666666</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>4.412903225806451</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2" t="n">
+        <v>4.903225806451612</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.4903225806451612</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
         <v>0.3268817204301075</v>
       </c>
     </row>
@@ -565,46 +603,60 @@
           <t>Gomez</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>4.502459355394023</v>
+      <c r="B3" s="2" t="n">
+        <v>41456</v>
       </c>
       <c r="C3" t="n">
-        <v>4.25383542538354</v>
-      </c>
-      <c r="D3" t="n">
-        <v>8</v>
+        <v>9.63013698630137</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Master-Mañanas</t>
+        </is>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>6.100398849106593</v>
       </c>
       <c r="G3" t="n">
-        <v>5</v>
+        <v>5.956767379022343</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>4.053333333333333</v>
+        <v>9</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>2.533333333333333</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.5066666666666666</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="S3" t="n">
         <v>0.5066666666666666</v>
       </c>
     </row>
@@ -614,46 +666,60 @@
           <t>Bravo</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>4.502459355394023</v>
+      <c r="B4" s="2" t="n">
+        <v>41456</v>
       </c>
       <c r="C4" t="n">
-        <v>4.486285448628542</v>
-      </c>
-      <c r="D4" t="n">
+        <v>9.63013698630137</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Master-Mañanas</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>29</v>
+      </c>
+      <c r="F4" t="n">
+        <v>6.100398849106593</v>
+      </c>
+      <c r="G4" t="n">
+        <v>6.079587324981564</v>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
         <v>9</v>
       </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>5</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" t="n">
+        <v>4.983606557377048</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.4983606557377049</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
         <v>4.485245901639344</v>
       </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>2.491803278688524</v>
-      </c>
-      <c r="O4" t="n">
+      <c r="S4" t="n">
         <v>0.4983606557377049</v>
       </c>
     </row>
@@ -663,46 +729,60 @@
           <t>Iñiguez</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>4.755186164733317</v>
+      <c r="B5" s="2" t="n">
+        <v>41640</v>
       </c>
       <c r="C5" t="n">
-        <v>4.25383542538354</v>
-      </c>
-      <c r="D5" t="n">
-        <v>8</v>
+        <v>9.126027397260273</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Master-Mañanas</t>
+        </is>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>6.122033951932656</v>
       </c>
       <c r="G5" t="n">
-        <v>5</v>
+        <v>5.956767379022341</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>4.122033898305085</v>
+        <v>9</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" t="n">
-        <v>2.576271186440678</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
+        <v>4.63728813559322</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.5152542372881356</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>4.63728813559322</v>
+      </c>
+      <c r="S5" t="n">
         <v>0.5152542372881356</v>
       </c>
     </row>
@@ -712,46 +792,60 @@
           <t>Breinbauer</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>4.755186164733317</v>
+      <c r="B6" s="2" t="n">
+        <v>41640</v>
       </c>
       <c r="C6" t="n">
-        <v>4.486285448628542</v>
-      </c>
-      <c r="D6" t="n">
+        <v>9.126027397260273</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Master-Mañanas</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>28</v>
+      </c>
+      <c r="F6" t="n">
+        <v>6.122033951932656</v>
+      </c>
+      <c r="G6" t="n">
+        <v>6.079587324981565</v>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
         <v>9</v>
       </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>5</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O6" t="n">
+        <v>4.903225806451612</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.4903225806451612</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
         <v>4.412903225806451</v>
       </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>2.451612903225806</v>
-      </c>
-      <c r="O6" t="n">
+      <c r="S6" t="n">
         <v>0.4903225806451612</v>
       </c>
     </row>
@@ -761,48 +855,62 @@
           <t>Arredondo</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>5.046371401580764</v>
+      <c r="B7" s="2" t="n">
+        <v>41852</v>
       </c>
       <c r="C7" t="n">
-        <v>4.904695490469546</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
+        <v>8.545205479452054</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Knight-Tardes</t>
+        </is>
       </c>
       <c r="E7" t="n">
+        <v>28</v>
+      </c>
+      <c r="F7" t="n">
+        <v>6.146961353014861</v>
+      </c>
+      <c r="G7" t="n">
+        <v>6.300663227708168</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>10</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
         <v>9</v>
       </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>5</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
       <c r="L7" t="n">
-        <v>4.412903225806451</v>
+        <v>1</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>2.451612903225806</v>
+        <v>1</v>
       </c>
       <c r="O7" t="n">
         <v>0.4903225806451612</v>
       </c>
+      <c r="P7" t="n">
+        <v>4.903225806451612</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>4.412903225806451</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.4903225806451612</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -810,46 +918,60 @@
           <t>Carrasco</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>5.046371401580764</v>
+      <c r="B8" s="2" t="n">
+        <v>41852</v>
       </c>
       <c r="C8" t="n">
-        <v>4.904695490469546</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
+        <v>8.545205479452054</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Knight-Tardes</t>
+        </is>
       </c>
       <c r="E8" t="n">
+        <v>24</v>
+      </c>
+      <c r="F8" t="n">
+        <v>6.146961353014861</v>
+      </c>
+      <c r="G8" t="n">
+        <v>6.423483173667393</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+      <c r="I8" t="n">
+        <v>10</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
         <v>9</v>
       </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>5</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
       <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.9212121212121213</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4.606060606060606</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
         <v>4.145454545454546</v>
       </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>2.303030303030303</v>
-      </c>
-      <c r="O8" t="n">
+      <c r="S8" t="n">
         <v>0.4606060606060606</v>
       </c>
     </row>
@@ -859,48 +981,62 @@
           <t>Culaciati</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>5.046371401580764</v>
+      <c r="B9" s="2" t="n">
+        <v>41852</v>
       </c>
       <c r="C9" t="n">
-        <v>4.904695490469546</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
+        <v>8.545205479452054</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Knight-Tardes</t>
+        </is>
       </c>
       <c r="E9" t="n">
+        <v>28</v>
+      </c>
+      <c r="F9" t="n">
+        <v>6.146961353014861</v>
+      </c>
+      <c r="G9" t="n">
+        <v>6.300663227708168</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>10</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
         <v>9</v>
       </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>5</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
       <c r="L9" t="n">
-        <v>4.412903225806451</v>
+        <v>1</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9" t="n">
-        <v>2.451612903225806</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0.4903225806451612</v>
       </c>
+      <c r="P9" t="n">
+        <v>4.903225806451612</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>4.412903225806451</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.4903225806451612</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -908,48 +1044,62 @@
           <t>Contreras</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>6.26055889862389</v>
+      <c r="B10" s="2" t="n">
+        <v>42736</v>
       </c>
       <c r="C10" t="n">
-        <v>5.090655509065548</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
+        <v>6.123287671232877</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Knight-Tardes</t>
+        </is>
       </c>
       <c r="E10" t="n">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>6.250903912244429</v>
       </c>
       <c r="G10" t="n">
-        <v>7</v>
+        <v>6.1532792925571</v>
       </c>
       <c r="H10" t="n">
         <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L10" t="n">
-        <v>4.266666666666667</v>
+        <v>1</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10" t="n">
-        <v>3.733333333333333</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
         <v>0.5333333333333333</v>
       </c>
+      <c r="P10" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.5333333333333333</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -957,46 +1107,60 @@
           <t>Cisternas</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>6.678107540140983</v>
+      <c r="B11" s="2" t="n">
+        <v>43040</v>
       </c>
       <c r="C11" t="n">
-        <v>6.973500697350067</v>
-      </c>
-      <c r="D11" t="n">
-        <v>2</v>
+        <v>5.29041095890411</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Padawan-Sin Fijo</t>
+        </is>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="F11" t="n">
-        <v>2</v>
+        <v>6.286648864739666</v>
       </c>
       <c r="G11" t="n">
-        <v>12</v>
+        <v>6.116433308769333</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K11" t="n">
+        <v>10</v>
+      </c>
+      <c r="L11" t="n">
+        <v>2</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.4053333333333333</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.4053333333333333</v>
+      </c>
+      <c r="Q11" t="n">
         <v>0.8106666666666666</v>
       </c>
-      <c r="L11" t="n">
-        <v>0.8106666666666666</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.8106666666666666</v>
-      </c>
-      <c r="N11" t="n">
-        <v>4.864</v>
-      </c>
-      <c r="O11" t="n">
+      <c r="R11" t="n">
+        <v>4.053333333333334</v>
+      </c>
+      <c r="S11" t="n">
         <v>0.8106666666666666</v>
       </c>
     </row>
@@ -1006,46 +1170,60 @@
           <t>Pio</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>6.778374154715812</v>
+      <c r="B12" s="2" t="n">
+        <v>43113</v>
       </c>
       <c r="C12" t="n">
-        <v>7.159460715946069</v>
-      </c>
-      <c r="D12" t="n">
-        <v>2</v>
+        <v>5.090410958904109</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Padawan-Sin Fijo</t>
+        </is>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="F12" t="n">
-        <v>2</v>
+        <v>6.295232356621745</v>
       </c>
       <c r="G12" t="n">
-        <v>14</v>
+        <v>6.239253254728556</v>
       </c>
       <c r="H12" t="n">
         <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K12" t="n">
+        <v>10</v>
+      </c>
+      <c r="L12" t="n">
+        <v>2</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1</v>
+      </c>
+      <c r="O12" t="n">
         <v>0.9806451612903224</v>
       </c>
-      <c r="L12" t="n">
+      <c r="P12" t="n">
         <v>0.4903225806451612</v>
       </c>
-      <c r="M12" t="n">
+      <c r="Q12" t="n">
         <v>0.9806451612903224</v>
       </c>
-      <c r="N12" t="n">
-        <v>6.864516129032257</v>
-      </c>
-      <c r="O12" t="n">
+      <c r="R12" t="n">
+        <v>4.903225806451612</v>
+      </c>
+      <c r="S12" t="n">
         <v>0.9806451612903223</v>
       </c>
     </row>
@@ -1055,48 +1233,62 @@
           <t>Alvo</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>7.680773685889267</v>
+      <c r="B13" s="2" t="n">
+        <v>43770</v>
       </c>
       <c r="C13" t="n">
-        <v>7.903300790330076</v>
-      </c>
-      <c r="D13" t="n">
-        <v>4</v>
+        <v>3.29041095890411</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Padawan-Sin Fijo</t>
+        </is>
       </c>
       <c r="E13" t="n">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="F13" t="n">
-        <v>2</v>
+        <v>6.372483783560464</v>
       </c>
       <c r="G13" t="n">
-        <v>14</v>
+        <v>6.239253254728555</v>
       </c>
       <c r="H13" t="n">
         <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K13" t="n">
-        <v>2.061016949152542</v>
+        <v>10</v>
       </c>
       <c r="L13" t="n">
-        <v>1.030508474576271</v>
+        <v>2</v>
       </c>
       <c r="M13" t="n">
-        <v>1.030508474576271</v>
+        <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>7.213559322033898</v>
+        <v>1</v>
       </c>
       <c r="O13" t="n">
         <v>1.030508474576271</v>
       </c>
+      <c r="P13" t="n">
+        <v>0.5152542372881356</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.030508474576271</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5.152542372881356</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.030508474576271</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1104,47 +1296,61 @@
           <t>Ramos</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>8.60102891554865</v>
+      <c r="B14" s="2" t="n">
+        <v>44440</v>
       </c>
       <c r="C14" t="n">
-        <v>9.600185960018592</v>
-      </c>
-      <c r="D14" t="n">
-        <v>3</v>
+        <v>1.454794520547945</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Padawan-Sin Fijo</t>
+        </is>
       </c>
       <c r="E14" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="F14" t="n">
-        <v>2</v>
+        <v>6.451263777546674</v>
       </c>
       <c r="G14" t="n">
-        <v>17</v>
+        <v>7.221812822402344</v>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K14" t="n">
-        <v>1.216</v>
+        <v>12</v>
       </c>
       <c r="L14" t="n">
+        <v>2</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>2</v>
+      </c>
+      <c r="O14" t="n">
         <v>0.8106666666666666</v>
       </c>
-      <c r="M14" t="n">
+      <c r="P14" t="n">
+        <v>0.4053333333333333</v>
+      </c>
+      <c r="Q14" t="n">
         <v>0.8106666666666666</v>
       </c>
-      <c r="N14" t="n">
-        <v>6.890666666666667</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.216</v>
+      <c r="R14" t="n">
+        <v>4.864</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.8106666666666666</v>
       </c>
     </row>
     <row r="15">
@@ -1153,47 +1359,61 @@
           <t>Boettiger</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>8.60102891554865</v>
+      <c r="B15" s="2" t="n">
+        <v>44440</v>
       </c>
       <c r="C15" t="n">
-        <v>9.600185960018594</v>
-      </c>
-      <c r="D15" t="n">
-        <v>3</v>
+        <v>1.454794520547945</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Padawan-Sin Fijo</t>
+        </is>
       </c>
       <c r="E15" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="F15" t="n">
-        <v>2</v>
+        <v>6.451263777546674</v>
       </c>
       <c r="G15" t="n">
-        <v>17</v>
+        <v>7.221812822402344</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K15" t="n">
-        <v>1.361194029850746</v>
+        <v>12</v>
       </c>
       <c r="L15" t="n">
+        <v>2</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
         <v>0.9074626865671642</v>
       </c>
-      <c r="M15" t="n">
+      <c r="P15" t="n">
+        <v>0.4537313432835821</v>
+      </c>
+      <c r="Q15" t="n">
         <v>0.9074626865671642</v>
       </c>
-      <c r="N15" t="n">
-        <v>7.713432835820895</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.361194029850746</v>
+      <c r="R15" t="n">
+        <v>5.444776119402985</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.9074626865671641</v>
       </c>
     </row>
     <row r="16">
@@ -1202,47 +1422,61 @@
           <t>Loch</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>8.975998583753144</v>
+      <c r="B16" s="2" t="n">
+        <v>44713</v>
       </c>
       <c r="C16" t="n">
-        <v>9.158530915853087</v>
-      </c>
-      <c r="D16" t="n">
+        <v>0.7068493150684931</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Padawan-Sin Fijo</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>21</v>
+      </c>
+      <c r="F16" t="n">
+        <v>6.48336368554404</v>
+      </c>
+      <c r="G16" t="n">
+        <v>7.87275853598623</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2</v>
+      </c>
+      <c r="K16" t="n">
+        <v>13</v>
+      </c>
+      <c r="L16" t="n">
         <v>3</v>
       </c>
-      <c r="E16" t="n">
-        <v>4</v>
-      </c>
-      <c r="F16" t="n">
-        <v>2</v>
-      </c>
-      <c r="G16" t="n">
-        <v>18</v>
-      </c>
-      <c r="H16" t="n">
-        <v>2</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="n">
+        <v>1</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.4405797101449275</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.4405797101449275</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.8811594202898551</v>
+      </c>
+      <c r="R16" t="n">
+        <v>5.727536231884057</v>
+      </c>
+      <c r="S16" t="n">
         <v>1.321739130434783</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1.76231884057971</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.8811594202898551</v>
-      </c>
-      <c r="N16" t="n">
-        <v>7.930434782608695</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0.8811594202898549</v>
       </c>
     </row>
     <row r="17">
@@ -1251,47 +1485,61 @@
           <t>Rubio</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>8.975998583753144</v>
+      <c r="B17" s="2" t="n">
+        <v>44713</v>
       </c>
       <c r="C17" t="n">
-        <v>9.25151092515109</v>
-      </c>
-      <c r="D17" t="n">
-        <v>4</v>
+        <v>0.7068493150684931</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Padawan-Sin Fijo</t>
+        </is>
       </c>
       <c r="E17" t="n">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>6.48336368554404</v>
       </c>
       <c r="G17" t="n">
-        <v>19</v>
+        <v>7.946450503561763</v>
       </c>
       <c r="H17" t="n">
-        <v>2.333333333333333</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="K17" t="n">
-        <v>1.788235294117647</v>
+        <v>14</v>
       </c>
       <c r="L17" t="n">
-        <v>1.341176470588235</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="n">
+        <v>2</v>
+      </c>
+      <c r="O17" t="n">
         <v>0.4470588235294117</v>
       </c>
-      <c r="N17" t="n">
-        <v>8.494117647058824</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.043137254901961</v>
+      <c r="P17" t="n">
+        <v>0.4470588235294117</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.4470588235294117</v>
+      </c>
+      <c r="R17" t="n">
+        <v>6.258823529411765</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.490196078431373</v>
       </c>
     </row>
   </sheetData>
